--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -341,7 +341,7 @@
     <t>勝利</t>
   </si>
   <si>
-    <t>Defat</t>
+    <t>Defeat</t>
   </si>
   <si>
     <t>败北</t>
@@ -1762,15 +1762,106 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1784,75 +1875,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1866,42 +1899,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1912,9 +1913,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1929,13 +1929,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,25 +2037,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,31 +2079,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,103 +2109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2120,6 +2120,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2138,17 +2153,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2194,9 +2203,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2209,17 +2220,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2228,10 +2228,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2240,133 +2240,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3154,8 +3154,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
@@ -3433,8 +3433,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -1762,8 +1762,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1776,8 +1776,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1791,30 +1844,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1830,77 +1892,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1913,8 +1905,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1929,7 +1929,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,175 +2109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2120,6 +2120,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2134,30 +2152,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2192,11 +2186,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2211,15 +2220,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2228,10 +2228,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2240,133 +2240,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3433,8 +3433,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4209,8 +4209,8 @@
   <sheetPr/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="580">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -1331,10 +1331,22 @@
     <t>MeltingPoint</t>
   </si>
   <si>
+    <t>MP</t>
+  </si>
+  <si>
     <t>熔点</t>
   </si>
   <si>
     <t>融点</t>
+  </si>
+  <si>
+    <t>BoilingPoint</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>沸点</t>
   </si>
   <si>
     <t>AbilityCost</t>
@@ -1762,10 +1774,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1773,6 +1785,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1785,22 +1825,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1814,56 +1863,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1892,6 +1904,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1900,14 +1920,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1929,7 +1941,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,7 +1977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,37 +1989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,37 +2001,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,7 +2049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,37 +2067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2103,13 +2091,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2120,24 +2132,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2152,6 +2146,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2171,52 +2224,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2228,10 +2240,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2240,133 +2252,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2903,24 +2915,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D3" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -2963,27 +2975,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
@@ -2991,155 +3003,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C5" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D8" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D9" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D10" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C11" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C12" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D12" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C13" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D13" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C14" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D14" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C15" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D15" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4221,7 @@
   <sheetPr/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -4855,13 +4867,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40.1111111111111" customWidth="1"/>
@@ -4898,22 +4910,25 @@
       <c r="A3" t="s">
         <v>434</v>
       </c>
+      <c r="B3" t="s">
+        <v>435</v>
+      </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D4" t="s">
         <v>440</v>
@@ -4923,33 +4938,47 @@
       <c r="A5" t="s">
         <v>441</v>
       </c>
+      <c r="B5" t="s">
+        <v>442</v>
+      </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -4992,13 +5021,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5041,132 +5070,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C12" t="s">
         <v>275</v>
@@ -5177,127 +5206,127 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D14" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C15" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D17" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B18" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D18" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C19" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D19" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B20" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C20" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D20" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C21" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B22" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C22" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D22" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="592">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -1599,6 +1599,42 @@
   </si>
   <si>
     <t>相手HP</t>
+  </si>
+  <si>
+    <t>Detonation</t>
+  </si>
+  <si>
+    <t>对一个热量释放1以上，剧烈度10以上的反应式发动。其释放全体爆炸伤害（热量释放量）*（剧烈度）。无法回收释放热量。</t>
+  </si>
+  <si>
+    <t>DustExplosion</t>
+  </si>
+  <si>
+    <t>对一个包含固体素材的，热量释放1以上，剧烈度5以上的反应式发动。其释放全体爆炸伤害（热量释放量）*（剧烈度）* 2。无法回收释放热量。</t>
+  </si>
+  <si>
+    <t>CompressedExplosion</t>
+  </si>
+  <si>
+    <t>对一个素材全是气体的，热量释放1以上，剧烈度5以上的反应式发动。其释放全体爆炸伤害（热量释放量）*（剧烈度）* 2。无法回收释放热量。</t>
+  </si>
+  <si>
+    <t>Melting</t>
+  </si>
+  <si>
+    <t>对一个热量释放5以上，剧烈度2以上的反应式发动。其对单个敌方卡牌升温至（热量释放量）*（剧烈度）* 20度。超过目标沸点时摧毁整个卡牌，超过目标熔点时弹回整个卡牌到敌方手牌。无法回收释放热量。</t>
+  </si>
+  <si>
+    <t>PaintProtection</t>
+  </si>
+  <si>
+    <t>这张卡放置在自己场上的卡牌叠上，禁止下面卡牌被融合素材指定。叠加数被任何原因更改时丢弃。</t>
+  </si>
+  <si>
+    <t>MetalRecycling</t>
+  </si>
+  <si>
+    <t>场上金属卡牌战损时发动。把它们加入自己手牌。被攻击方有优先发动权。</t>
   </si>
   <si>
     <t>ChangeCardBackground</t>
@@ -1774,10 +1810,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1789,7 +1825,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1803,29 +1869,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1833,7 +1877,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1847,9 +1898,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1863,9 +1914,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1879,24 +1936,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,17 +1960,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1941,7 +1977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,7 +1995,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1965,61 +2133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,73 +2145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,18 +2161,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2132,6 +2168,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2162,16 +2207,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2185,26 +2239,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2223,15 +2268,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2240,10 +2276,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2252,133 +2288,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2915,24 +2951,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="D2" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -2975,27 +3011,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="D2" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C3" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
@@ -3003,155 +3039,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B4" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C4" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="C5" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="D5" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="D6" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="D7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="C8" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="D8" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C9" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D9" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="C10" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="D10" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="C11" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C12" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="D12" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="C13" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D13" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="C14" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="D14" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C15" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D15" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4869,8 +4905,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -5040,10 +5076,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
@@ -5329,6 +5365,54 @@
         <v>523</v>
       </c>
     </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" t="s">
+        <v>524</v>
+      </c>
+      <c r="C23" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" t="s">
+        <v>526</v>
+      </c>
+      <c r="C24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" t="s">
+        <v>528</v>
+      </c>
+      <c r="C25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" t="s">
+        <v>532</v>
+      </c>
+      <c r="C27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" t="s">
+        <v>534</v>
+      </c>
+      <c r="C28" t="s">
+        <v>535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="597">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -522,6 +522,21 @@
   </si>
   <si>
     <t>デスタック</t>
+  </si>
+  <si>
+    <t>Summon</t>
+  </si>
+  <si>
+    <t>召唤</t>
+  </si>
+  <si>
+    <t>召喚</t>
+  </si>
+  <si>
+    <t>叠加</t>
+  </si>
+  <si>
+    <t>重ねる</t>
   </si>
   <si>
     <t>Guide1-1-1</t>
@@ -1810,8 +1825,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1824,15 +1839,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1854,22 +1898,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1884,23 +1915,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1908,28 +1923,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1945,6 +1938,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1954,17 +1963,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1977,13 +1992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,7 +2004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,7 +2028,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,7 +2154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,127 +2172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,41 +2183,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2230,11 +2210,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2254,6 +2249,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2268,6 +2272,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2276,10 +2291,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2288,133 +2303,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2951,24 +2966,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D3" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -3011,27 +3026,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
@@ -3039,155 +3054,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C4" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B6" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C6" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D6" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C8" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D8" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C9" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D9" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C10" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D10" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C11" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D11" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C12" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D12" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C13" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C14" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D14" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C15" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D15" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -3479,10 +3494,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3820,6 +3835,28 @@
       </c>
       <c r="D28" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3862,387 +3899,387 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4285,29 +4322,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4318,159 +4355,159 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C17" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4478,302 +4515,302 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D23" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C24" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D24" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D25" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D27" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C28" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C29" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D29" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C30" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D30" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D32" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D33" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C34" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D35" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C36" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D37" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D38" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C39" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D39" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D40" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C41" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D41" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C42" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D42" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C43" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D43" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C44" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D44" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C45" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D45" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4781,116 +4818,116 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D46" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C47" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D47" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D48" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B49" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C49" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D49" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D50" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D51" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D52" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C53" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D53" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C54" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D54" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4933,88 +4970,88 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D8" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5057,13 +5094,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -5078,7 +5115,7 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -5106,311 +5143,311 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D4" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D5" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D6" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C8" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D8" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C9" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D9" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D10" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D11" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C13" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D13" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C14" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C15" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C16" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D16" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C17" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D17" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C18" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D18" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C19" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D19" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D20" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C21" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D21" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B22" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C22" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D22" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C23" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C24" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C25" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C27" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C28" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="603">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -537,6 +537,24 @@
   </si>
   <si>
     <t>重ねる</t>
+  </si>
+  <si>
+    <t>Enhance</t>
+  </si>
+  <si>
+    <t>强化</t>
+  </si>
+  <si>
+    <t>強化</t>
+  </si>
+  <si>
+    <t>Vigorousness</t>
+  </si>
+  <si>
+    <t>剧烈度</t>
+  </si>
+  <si>
+    <t>激しさ</t>
   </si>
   <si>
     <t>Guide1-1-1</t>
@@ -1825,15 +1843,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1848,6 +1896,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1855,52 +1910,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1955,7 +1973,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1963,14 +1981,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1998,6 +2016,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2010,19 +2064,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2034,19 +2094,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,13 +2166,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,103 +2190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,30 +2201,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2235,6 +2229,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2258,6 +2267,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2275,11 +2295,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2291,10 +2309,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2303,19 +2321,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2324,13 +2342,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2342,94 +2360,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2966,24 +2984,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -3026,27 +3044,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C3" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
@@ -3054,155 +3072,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C4" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D5" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D6" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C8" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B9" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D9" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C10" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D10" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C11" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C12" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D12" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C13" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D13" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C14" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D14" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C15" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D15" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -3494,10 +3512,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3857,6 +3875,28 @@
       </c>
       <c r="D30" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3899,387 +3939,387 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D31" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D36" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4322,29 +4362,29 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4355,159 +4395,159 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C18" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4515,302 +4555,302 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C21" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D21" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D23" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C24" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D24" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C26" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D27" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C29" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D30" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D31" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C32" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D33" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D37" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C38" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C39" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D39" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D40" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C41" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D41" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C42" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D42" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D43" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C44" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D44" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C45" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D45" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4818,116 +4858,116 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C46" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D46" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C47" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D47" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C48" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D48" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C49" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D49" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C50" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D50" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C51" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D51" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C52" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C53" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D53" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C54" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D54" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -4970,88 +5010,88 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C6" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D6" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -5094,13 +5134,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5143,311 +5183,311 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D5" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D6" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C10" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C11" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D12" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C13" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D13" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D14" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C15" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D15" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D16" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C17" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D17" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C18" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D18" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C19" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D19" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B20" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D20" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C21" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B22" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C22" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D22" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C23" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C24" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C25" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C26" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C27" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C28" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -1637,7 +1637,7 @@
     <t>Detonation</t>
   </si>
   <si>
-    <t>对一个热量释放1以上，剧烈度10以上的反应式发动。其释放全体爆炸伤害（热量释放量）*（剧烈度）。无法回收释放热量。</t>
+    <t>反应式增加（热量释放量）*（剧烈度）的爆炸威力。热量释放无法回收。</t>
   </si>
   <si>
     <t>DustExplosion</t>
@@ -1843,9 +1843,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1857,9 +1857,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1873,7 +1872,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,43 +1927,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1971,9 +1971,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1987,15 +1986,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2010,7 +2010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,13 +2022,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,7 +2040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,13 +2058,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,43 +2124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,31 +2154,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2166,31 +2178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,11 +2219,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2243,21 +2249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2269,11 +2260,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2295,9 +2293,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2309,7 +2309,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2321,34 +2321,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2360,94 +2360,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3514,7 +3514,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -5155,8 +5155,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="606">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -1350,6 +1350,15 @@
   </si>
   <si>
     <t>研究する</t>
+  </si>
+  <si>
+    <t>ResearchLevel</t>
+  </si>
+  <si>
+    <t>研究等级</t>
+  </si>
+  <si>
+    <t>研究レベル</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1845,8 +1854,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1857,15 +1866,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1878,15 +1896,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1900,17 +1926,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1924,9 +1941,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1947,14 +1971,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1964,15 +1980,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1980,7 +1989,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1995,7 +2004,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2010,7 +2019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,13 +2049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,19 +2067,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,7 +2145,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,115 +2193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,6 +2210,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2219,17 +2267,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2251,18 +2293,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2275,32 +2310,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2309,10 +2318,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2321,133 +2330,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2984,24 +2993,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -3044,27 +3053,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
@@ -3072,155 +3081,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B4" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D4" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D6" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B8" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C8" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C9" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C10" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C11" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C12" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D12" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C13" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D13" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C14" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D14" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C15" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D15" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -4332,10 +4341,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4968,6 +4977,17 @@
       </c>
       <c r="D54" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>442</v>
+      </c>
+      <c r="C55" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -5010,88 +5030,88 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5134,13 +5154,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5155,7 +5175,7 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -5183,132 +5203,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
         <v>286</v>
@@ -5319,175 +5339,175 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C13" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D13" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D14" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C15" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D15" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C16" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D16" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C18" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D18" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B19" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C19" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D19" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C20" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D20" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B21" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C21" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D21" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B22" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C22" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D22" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C23" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C24" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C25" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C26" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C27" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C28" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="609">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -1359,6 +1359,15 @@
   </si>
   <si>
     <t>研究レベル</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>レベル</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1852,10 +1861,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1866,24 +1875,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,10 +1890,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1926,70 +1949,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2004,9 +1966,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2019,7 +2028,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,13 +2058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,13 +2088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,7 +2112,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,49 +2172,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,61 +2196,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,17 +2222,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2245,24 +2272,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2271,7 +2300,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2290,26 +2319,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2318,10 +2327,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2330,133 +2339,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2993,24 +3002,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -3053,27 +3062,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
@@ -3081,155 +3090,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B5" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D5" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D6" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D8" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B9" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C9" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D9" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D10" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D11" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C12" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D12" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C13" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D13" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C14" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D14" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C15" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D15" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -4341,10 +4350,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4988,6 +4997,17 @@
       </c>
       <c r="D55" t="s">
         <v>444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>445</v>
+      </c>
+      <c r="C56" t="s">
+        <v>446</v>
+      </c>
+      <c r="D56" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5030,88 +5050,88 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5154,13 +5174,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5203,132 +5223,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C4" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C9" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C10" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D10" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C11" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D11" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C12" t="s">
         <v>286</v>
@@ -5339,175 +5359,175 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C13" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D14" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C15" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D15" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C16" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D16" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B18" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C18" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D18" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C19" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D19" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B20" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C20" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D20" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B21" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C21" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D21" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B22" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C22" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D22" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C23" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C24" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C25" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C26" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C27" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C28" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
+++ b/ChemicalSummon/Assets/StreamingAssets/TranslatableSentence.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="616">
   <si>
     <t>ScriptableObjectName</t>
   </si>
@@ -1368,6 +1368,27 @@
   </si>
   <si>
     <t>レベル</t>
+  </si>
+  <si>
+    <t>SubstanceEncyclopedia</t>
+  </si>
+  <si>
+    <t>物质图鉴</t>
+  </si>
+  <si>
+    <t>物質図鑑</t>
+  </si>
+  <si>
+    <t>ResearchExp</t>
+  </si>
+  <si>
+    <t>Research EXP</t>
+  </si>
+  <si>
+    <t>研究经验</t>
+  </si>
+  <si>
+    <t>研究経験値</t>
   </si>
   <si>
     <t>ATK</t>
@@ -1876,7 +1897,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,60 +1911,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1966,15 +1942,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1982,7 +1950,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1996,10 +2003,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2011,11 +2019,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2028,13 +2049,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2046,109 +2103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2166,19 +2121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,7 +2139,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2202,13 +2223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,20 +2243,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2255,6 +2284,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2266,32 +2304,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2319,6 +2331,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2327,10 +2348,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2339,133 +2360,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3002,24 +3023,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -3062,27 +3083,27 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C3" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D3" t="s">
         <v>153</v>
@@ -3090,155 +3111,155 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D4" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D5" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C6" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D6" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B8" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D8" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D9" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D10" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C11" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D11" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C12" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="D12" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C13" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D13" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C14" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D14" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C15" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D15" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -4350,10 +4371,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -5008,6 +5029,31 @@
       </c>
       <c r="D56" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" t="s">
+        <v>449</v>
+      </c>
+      <c r="D57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>451</v>
+      </c>
+      <c r="B58" t="s">
+        <v>452</v>
+      </c>
+      <c r="C58" t="s">
+        <v>453</v>
+      </c>
+      <c r="D58" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5050,88 +5096,88 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D4" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D6" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D8" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -5174,13 +5220,13 @@
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -5223,132 +5269,132 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D3" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D4" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C5" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D6" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C8" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D9" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C10" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D10" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
         <v>286</v>
@@ -5359,175 +5405,175 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C13" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D13" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C14" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D14" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C15" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D15" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C16" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D16" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C17" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D17" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C18" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B19" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C19" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D19" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B20" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C20" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D20" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B21" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C21" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D21" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B22" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C22" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D22" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C23" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
       <c r="A24" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C24" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
       <c r="A25" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C25" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
       <c r="A26" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C26" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
       <c r="A27" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C27" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
       <c r="A28" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C28" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
